--- a/문서/아이템 표(수정전).xlsx
+++ b/문서/아이템 표(수정전).xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone_Project\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB775DF-B7EC-4882-886C-6B867B846564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{176102AD-5C95-455F-B132-DEB93A6FCEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53677C69-C1FE-4E72-8F0F-2666E3E2EE47}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53677C69-C1FE-4E72-8F0F-2666E3E2EE47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>염토</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>건물 재질</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낱알</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,6 +240,22 @@
   </si>
   <si>
     <t>점토+모래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동파밍x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자동파밍 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건축재</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1062,17 +1075,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DFBA0A-A083-4499-A62D-CED8D4F000DF}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="D10" sqref="D10:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>6</v>
@@ -1087,13 +1100,13 @@
         <v>8</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
@@ -1101,10 +1114,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
@@ -1113,90 +1126,102 @@
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19"/>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="D10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="E10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="F10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="G10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="22" t="s">
+      <c r="H10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="27"/>
       <c r="B11" s="20"/>
       <c r="C11" s="23"/>
@@ -1206,7 +1231,7 @@
       <c r="G11" s="23"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="20"/>
       <c r="C12" s="23"/>
@@ -1215,24 +1240,24 @@
       <c r="F12" s="20"/>
       <c r="G12" s="23"/>
       <c r="H12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
       <c r="B13" s="20"/>
       <c r="C13" s="23"/>
       <c r="D13" s="20"/>
       <c r="E13" s="23"/>
       <c r="F13" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="20"/>
       <c r="C14" s="23"/>
@@ -1242,7 +1267,7 @@
       <c r="G14" s="23"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28"/>
       <c r="B15" s="21"/>
       <c r="C15" s="24"/>
@@ -1251,110 +1276,110 @@
       <c r="F15" s="21"/>
       <c r="G15" s="24"/>
       <c r="H15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
